--- a/Estadistica Proyectos/Proyectos POR FUICION .xlsx
+++ b/Estadistica Proyectos/Proyectos POR FUICION .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\Estadistica Proyectos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI-GitHub\Gestion-ORFEI\Estadistica Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B5D293-243E-44EC-9BD4-6A74CE6E412C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6E1675-F6CF-40C3-BA40-38AA7E5F54E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{23EDBA58-D59C-4CB1-967E-91FF314FD852}"/>
+    <workbookView minimized="1" xWindow="1185" yWindow="1470" windowWidth="13800" windowHeight="9360" xr2:uid="{23EDBA58-D59C-4CB1-967E-91FF314FD852}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte" sheetId="1" r:id="rId1"/>
@@ -1266,9 +1266,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1294,9 +1291,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1309,14 +1303,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1329,6 +1317,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1337,9 +1340,6 @@
     </xf>
     <xf numFmtId="4" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1662,66 +1662,66 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="75.44140625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="75.42578125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="9" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="35"/>
+    <col min="5" max="5" width="11.5703125" style="31"/>
     <col min="6" max="6" width="0" style="9" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="9" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" style="13" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" style="36" customWidth="1"/>
-    <col min="13" max="13" width="6.44140625" style="9" customWidth="1"/>
-    <col min="14" max="16384" width="11.5546875" style="9"/>
+    <col min="7" max="7" width="15.5703125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="9" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="32" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" style="9" customWidth="1"/>
+    <col min="14" max="16384" width="11.5703125" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="38" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="38" t="s">
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
+    <row r="3" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E3" s="38"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="11" t="s">
         <v>349</v>
       </c>
@@ -1734,4917 +1734,4925 @@
       <c r="L3" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="M3" s="38"/>
-    </row>
-    <row r="4" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="M3" s="39"/>
+    </row>
+    <row r="4" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-    </row>
-    <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+    </row>
+    <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>2230514</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>201568.42</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20" t="str">
+      <c r="F5" s="18"/>
+      <c r="G5" s="19" t="str">
         <f ca="1">QUOTIENT(_xlfn.DAYS(TODAY(),E5),360)&amp; " años " &amp; QUOTIENT(MOD(_xlfn.DAYS(TODAY(),E5),360),30)&amp; " meses"</f>
         <v>16 años 6 meses</v>
       </c>
-      <c r="H5" s="21" t="str">
+      <c r="H5" s="20" t="str">
         <f ca="1">IF(QUOTIENT(_xlfn.DAYS(TODAY(),F5),360)&gt;=3,"Inactivo","Activo")</f>
         <v>Inactivo</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="23">
+      <c r="L5" s="21"/>
+      <c r="M5" s="22">
         <f>F5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+    </row>
+    <row r="7" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
         <v>2329701</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>4702146</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>1207</v>
       </c>
-      <c r="G7" s="20" t="str">
+      <c r="G7" s="19" t="str">
         <f ca="1">QUOTIENT(_xlfn.DAYS(TODAY(),E7),360)&amp; " años " &amp; QUOTIENT(MOD(_xlfn.DAYS(TODAY(),E7),360),30)&amp; " meses"</f>
         <v>3 años 0 meses</v>
       </c>
-      <c r="H7" s="21" t="str">
+      <c r="H7" s="20" t="str">
         <f ca="1">IF(QUOTIENT(_xlfn.DAYS(TODAY(),F7),360)&gt;=3,"Inactivo","Activo")</f>
         <v>Inactivo</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="22">
         <f t="shared" ref="M7:M25" si="0">F7</f>
         <v>1207</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="36" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+    <row r="8" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
         <v>2344525</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>3770233</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>950</v>
       </c>
-      <c r="G8" s="20" t="str">
+      <c r="G8" s="19" t="str">
         <f t="shared" ref="G8:G74" ca="1" si="1">QUOTIENT(_xlfn.DAYS(TODAY(),E8),360)&amp; " años " &amp; QUOTIENT(MOD(_xlfn.DAYS(TODAY(),E8),360),30)&amp; " meses"</f>
         <v>3 años 0 meses</v>
       </c>
-      <c r="H8" s="21" t="str">
+      <c r="H8" s="20" t="str">
         <f ca="1">IF(QUOTIENT(_xlfn.DAYS(TODAY(),F8),360)&gt;=3,"Inactivo","Activo")</f>
         <v>Inactivo</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="L8" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="22">
         <f t="shared" si="0"/>
         <v>950</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="36" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+    <row r="9" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="A9" s="23">
         <v>2312602</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>3258587</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>488</v>
       </c>
-      <c r="G9" s="20" t="str">
+      <c r="G9" s="19" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>3 años 5 meses</v>
       </c>
-      <c r="H9" s="21" t="str">
+      <c r="H9" s="20" t="str">
         <f ca="1">IF(QUOTIENT(_xlfn.DAYS(TODAY(),F9),360)&gt;=3,"Inactivo","Activo")</f>
         <v>Inactivo</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="22">
         <f t="shared" si="0"/>
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
         <v>2229419</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>1995359.25</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20" t="str">
+      <c r="F10" s="18"/>
+      <c r="G10" s="19" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>16 años 4 meses</v>
       </c>
-      <c r="H10" s="21" t="str">
+      <c r="H10" s="20" t="str">
         <f t="shared" ref="H10:H73" ca="1" si="2">IF(QUOTIENT(_xlfn.DAYS(TODAY(),F10),360)&gt;=3,"Inactivo","Activo")</f>
         <v>Inactivo</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="23">
+      <c r="L10" s="21"/>
+      <c r="M10" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="36" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+    <row r="11" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="A11" s="23">
         <v>2330960</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>1968157</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>908</v>
       </c>
-      <c r="G11" s="20" t="str">
+      <c r="G11" s="19" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>3 años 2 meses</v>
       </c>
-      <c r="H11" s="21" t="str">
+      <c r="H11" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Inactivo</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K11" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="L11" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="22">
         <f t="shared" si="0"/>
         <v>908</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+    <row r="12" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
         <v>2227167</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>708621</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>1750</v>
       </c>
-      <c r="G12" s="20" t="str">
+      <c r="G12" s="19" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>13 años 9 meses</v>
       </c>
-      <c r="H12" s="21" t="str">
+      <c r="H12" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Inactivo</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="22">
         <f t="shared" si="0"/>
         <v>1750</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+    <row r="13" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
         <v>2232322</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>647279</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>521</v>
       </c>
-      <c r="G13" s="20" t="str">
+      <c r="G13" s="19" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>14 años 10 meses</v>
       </c>
-      <c r="H13" s="21" t="str">
+      <c r="H13" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Inactivo</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="23">
+      <c r="L13" s="21"/>
+      <c r="M13" s="22">
         <f t="shared" si="0"/>
         <v>521</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+    <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
         <v>2227597</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>497457</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <v>750</v>
       </c>
-      <c r="G14" s="20" t="str">
+      <c r="G14" s="19" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>15 años 11 meses</v>
       </c>
-      <c r="H14" s="21" t="str">
+      <c r="H14" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Inactivo</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="L14" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="22">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+    <row r="15" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
         <v>2230016</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>468007</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20" t="str">
+      <c r="F15" s="18"/>
+      <c r="G15" s="19" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>16 años 5 meses</v>
       </c>
-      <c r="H15" s="21" t="str">
+      <c r="H15" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Inactivo</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+    <row r="16" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
         <v>2228677</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>444748</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <v>700</v>
       </c>
-      <c r="G16" s="20" t="str">
+      <c r="G16" s="19" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>13 años 6 meses</v>
       </c>
-      <c r="H16" s="21" t="str">
+      <c r="H16" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Inactivo</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="K16" s="22" t="s">
+      <c r="K16" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="L16" s="22" t="s">
+      <c r="L16" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="22">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+    <row r="17" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
         <v>2232316</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>391928</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="18">
         <v>260</v>
       </c>
-      <c r="G17" s="20" t="str">
+      <c r="G17" s="19" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>14 años 10 meses</v>
       </c>
-      <c r="H17" s="21" t="str">
+      <c r="H17" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Inactivo</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="K17" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="L17" s="27"/>
-      <c r="M17" s="23">
+      <c r="L17" s="25"/>
+      <c r="M17" s="22">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+    <row r="18" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
         <v>2229847</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>327604</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="18">
         <v>720</v>
       </c>
-      <c r="G18" s="20" t="str">
+      <c r="G18" s="19" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>15 años 11 meses</v>
       </c>
-      <c r="H18" s="21" t="str">
+      <c r="H18" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Inactivo</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="L18" s="22" t="s">
+      <c r="L18" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="M18" s="23">
+      <c r="M18" s="22">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+    <row r="19" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
         <v>2228341</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>278243</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20" t="str">
+      <c r="F19" s="18"/>
+      <c r="G19" s="19" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>16 años 4 meses</v>
       </c>
-      <c r="H19" s="21" t="str">
+      <c r="H19" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Inactivo</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="K19" s="22" t="s">
+      <c r="K19" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="L19" s="22" t="s">
+      <c r="L19" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+    <row r="20" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
         <v>2232315</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="16">
         <v>260890</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <v>400</v>
       </c>
-      <c r="G20" s="20" t="str">
+      <c r="G20" s="19" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>14 años 9 meses</v>
       </c>
-      <c r="H20" s="21" t="str">
+      <c r="H20" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Inactivo</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="L20" s="22"/>
-      <c r="M20" s="23">
+      <c r="L20" s="21"/>
+      <c r="M20" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
         <v>2228701</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="16">
         <v>241819</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="18">
         <v>511</v>
       </c>
-      <c r="G21" s="20" t="str">
+      <c r="G21" s="19" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>14 años 3 meses</v>
       </c>
-      <c r="H21" s="21" t="str">
+      <c r="H21" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Inactivo</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="L21" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="22">
         <f t="shared" si="0"/>
         <v>511</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+    <row r="22" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
         <v>2230419</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <v>227074</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="18">
         <v>320</v>
       </c>
-      <c r="G22" s="20" t="str">
+      <c r="G22" s="19" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>15 años 10 meses</v>
       </c>
-      <c r="H22" s="21" t="str">
+      <c r="H22" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Inactivo</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="K22" s="22" t="s">
+      <c r="K22" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="L22" s="22" t="s">
+      <c r="L22" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="22">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="36" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+    <row r="23" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
         <v>2227464</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <v>133323</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="18">
         <v>400</v>
       </c>
-      <c r="G23" s="20" t="str">
+      <c r="G23" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>16 años 1 meses</v>
+      </c>
+      <c r="H23" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="L23" s="21"/>
+      <c r="M23" s="22">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>2230420</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="16">
+        <v>131032</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>16 años 4 meses</v>
+      </c>
+      <c r="H24" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="M24" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>2232050</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="16">
+        <v>99632</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="18">
+        <v>288</v>
+      </c>
+      <c r="G25" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>15 años 11 meses</v>
+      </c>
+      <c r="H25" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="K25" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="L25" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M25" s="22">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>2229207</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="16">
+        <v>98767</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="27">
+        <v>38406</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>15 años 7 meses</v>
+      </c>
+      <c r="H27" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="K27" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="L27" s="26"/>
+      <c r="M27" s="22">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+    </row>
+    <row r="29" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>2329305</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="16">
+        <v>12684526</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="27">
+        <f>LOOKUP(A29,DATA!A26:A135,DATA!C26:C135)</f>
+        <v>42774</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3 años 6 meses</v>
+      </c>
+      <c r="H29" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="M29" s="22">
+        <v>34380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
+        <v>2229218</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="16">
+        <v>301655</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="18">
+        <v>6968</v>
+      </c>
+      <c r="G31" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>13 años 11 meses</v>
+      </c>
+      <c r="H31" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="L31" s="25"/>
+      <c r="M31" s="22">
+        <f>F31</f>
+        <v>6968</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+    </row>
+    <row r="33" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="A33" s="23">
+        <v>2315159</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="16">
+        <v>18555555</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="18">
+        <v>8386</v>
+      </c>
+      <c r="G33" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3 años 3 meses</v>
+      </c>
+      <c r="H33" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="M33" s="22">
+        <f t="shared" ref="M33:M59" si="3">F33</f>
+        <v>8386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="A34" s="23">
+        <v>2343430</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="16">
+        <v>16784127</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="18">
+        <v>4676</v>
+      </c>
+      <c r="G34" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3 años 0 meses</v>
+      </c>
+      <c r="H34" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="M34" s="22">
+        <f t="shared" si="3"/>
+        <v>4676</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="A35" s="23">
+        <v>2337801</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="16">
+        <v>13995962</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="18">
+        <v>2827</v>
+      </c>
+      <c r="G35" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3 años 2 meses</v>
+      </c>
+      <c r="H35" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="M35" s="22">
+        <f t="shared" si="3"/>
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="A36" s="23">
+        <v>2331861</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="16">
+        <v>9954890</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="18">
+        <v>779</v>
+      </c>
+      <c r="G36" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3 años 2 meses</v>
+      </c>
+      <c r="H36" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="L36" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="M36" s="22">
+        <f t="shared" si="3"/>
+        <v>779</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="A37" s="23">
+        <v>2337768</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="16">
+        <v>9629731</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="18">
+        <v>3084</v>
+      </c>
+      <c r="G37" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3 años 1 meses</v>
+      </c>
+      <c r="H37" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="L37" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="M37" s="22">
+        <f t="shared" si="3"/>
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+      <c r="A38" s="23">
+        <v>2307628</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="16">
+        <v>9213939</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="18">
+        <v>59</v>
+      </c>
+      <c r="G38" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4 años 2 meses</v>
+      </c>
+      <c r="H38" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="K38" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="M38" s="22">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+      <c r="A39" s="23">
+        <v>2342809</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="16">
+        <v>7955371</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="18">
+        <v>900</v>
+      </c>
+      <c r="G39" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3 años 4 meses</v>
+      </c>
+      <c r="H39" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="L39" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="M39" s="22">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A40" s="23">
+        <v>2352291</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="16">
+        <v>7906257</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="18">
+        <v>3559</v>
+      </c>
+      <c r="G40" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3 años 1 meses</v>
+      </c>
+      <c r="H40" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="M40" s="22">
+        <f t="shared" si="3"/>
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="A41" s="23">
+        <v>2329289</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="16">
+        <v>7002392</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="18">
+        <v>488</v>
+      </c>
+      <c r="G41" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3 años 3 meses</v>
+      </c>
+      <c r="H41" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="L41" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="M41" s="22">
+        <f t="shared" si="3"/>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+      <c r="A42" s="23">
+        <v>2328511</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="16">
+        <v>5725259</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="18">
+        <v>884</v>
+      </c>
+      <c r="G42" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3 años 1 meses</v>
+      </c>
+      <c r="H42" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="K42" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="L42" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="M42" s="22">
+        <f t="shared" si="3"/>
+        <v>884</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="A43" s="23">
+        <v>2340756</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="16">
+        <v>3999858</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="18">
+        <v>1736</v>
+      </c>
+      <c r="G43" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2 años 6 meses</v>
+      </c>
+      <c r="H43" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="L43" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="M43" s="22">
+        <f t="shared" si="3"/>
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A44" s="14">
+        <v>2228097</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="16">
+        <v>582173</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="18">
+        <v>95</v>
+      </c>
+      <c r="G44" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>15 años 11 meses</v>
+      </c>
+      <c r="H44" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J44" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="K44" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="L44" s="25"/>
+      <c r="M44" s="22">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A45" s="14">
+        <v>2227184</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="16">
+        <v>534450.4</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>16 años 5 meses</v>
+      </c>
+      <c r="H45" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J45" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="K45" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="L45" s="25"/>
+      <c r="M45" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A46" s="14">
+        <v>2230429</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="16">
+        <v>529436</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" s="18">
+        <v>428</v>
+      </c>
+      <c r="G46" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>15 años 6 meses</v>
+      </c>
+      <c r="H46" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J46" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="K46" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="L46" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="M46" s="22">
+        <f t="shared" si="3"/>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A47" s="14">
+        <v>2228264</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="16">
+        <v>503526</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47" s="18"/>
+      <c r="G47" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>16 años 5 meses</v>
+      </c>
+      <c r="H47" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="L47" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="M47" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="A48" s="14">
+        <v>2227683</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="16">
+        <v>370991</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48" s="18">
+        <v>1475</v>
+      </c>
+      <c r="G48" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>14 años 4 meses</v>
+      </c>
+      <c r="H48" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I48" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J48" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="K48" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="L48" s="25"/>
+      <c r="M48" s="22">
+        <f t="shared" si="3"/>
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A49" s="14">
+        <v>2231056</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="16">
+        <v>368399</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="18">
+        <v>474</v>
+      </c>
+      <c r="G49" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>14 años 11 meses</v>
+      </c>
+      <c r="H49" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J49" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="K49" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="L49" s="25"/>
+      <c r="M49" s="22">
+        <f t="shared" si="3"/>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A50" s="14">
+        <v>2227166</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="16">
+        <v>321961</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50" s="18">
+        <v>1015</v>
+      </c>
+      <c r="G50" s="19" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>16 años 0 meses</v>
       </c>
-      <c r="H23" s="21" t="str">
+      <c r="H50" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Inactivo</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I50" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J23" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="L23" s="22"/>
-      <c r="M23" s="23">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
-        <v>2230420</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="17">
-        <v>131032</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20" t="str">
+      <c r="J50" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="K50" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="L50" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="M50" s="22">
+        <f t="shared" si="3"/>
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A51" s="14">
+        <v>2233612</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="16">
+        <v>303850</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" s="18">
+        <v>272</v>
+      </c>
+      <c r="G51" s="19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>16 años 4 meses</v>
-      </c>
-      <c r="H24" s="21" t="str">
+        <v>15 años 11 meses</v>
+      </c>
+      <c r="H51" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Inactivo</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I51" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="J51" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="K24" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="M24" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
-        <v>2232050</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="17">
-        <v>99632</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="19">
-        <v>288</v>
-      </c>
-      <c r="G25" s="20" t="str">
+      <c r="K51" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="L51" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="M51" s="22">
+        <f t="shared" si="3"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A52" s="14">
+        <v>2230467</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="16">
+        <v>197630</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="18">
+        <v>266</v>
+      </c>
+      <c r="G52" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>16 años 1 meses</v>
+      </c>
+      <c r="H52" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J52" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="K52" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="L52" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="M52" s="22">
+        <f t="shared" si="3"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A53" s="14">
+        <v>2227183</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="16">
+        <v>177186</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="18">
+        <v>211</v>
+      </c>
+      <c r="G53" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>15 años 11 meses</v>
+      </c>
+      <c r="H53" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I53" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J53" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="K53" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="L53" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="M53" s="22">
+        <f t="shared" si="3"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A54" s="14">
+        <v>2230447</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="16">
+        <v>163604</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F54" s="18">
+        <v>278</v>
+      </c>
+      <c r="G54" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>15 años 11 meses</v>
+      </c>
+      <c r="H54" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I54" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J54" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="K54" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="L54" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="M54" s="22">
+        <f t="shared" si="3"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A55" s="14">
+        <v>2227741</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="16">
+        <v>127449</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" s="18">
+        <v>45</v>
+      </c>
+      <c r="G55" s="19" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>15 años 10 meses</v>
       </c>
-      <c r="H25" s="21" t="str">
+      <c r="H55" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Inactivo</v>
       </c>
-      <c r="I25" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="J25" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="K25" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="L25" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="M25" s="23">
-        <f t="shared" si="0"/>
-        <v>288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
-        <v>2229207</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="17">
-        <v>98767</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="30">
-        <v>38406</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="20" t="str">
+      <c r="I55" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J55" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="K55" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="L55" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="M55" s="22">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A56" s="14">
+        <v>2227709</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="16">
+        <v>99517</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F56" s="18">
+        <v>626</v>
+      </c>
+      <c r="G56" s="19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>15 años 7 meses</v>
-      </c>
-      <c r="H27" s="21" t="str">
+        <v>13 años 10 meses</v>
+      </c>
+      <c r="H56" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Inactivo</v>
       </c>
-      <c r="I27" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="J27" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="K27" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="L27" s="28"/>
-      <c r="M27" s="23">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-    </row>
-    <row r="29" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
-        <v>2329305</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="17">
-        <v>12684526</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="30">
-        <f>LOOKUP(A29,DATA!A26:A135,DATA!C26:C135)</f>
-        <v>42774</v>
-      </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="20" t="str">
+      <c r="I56" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J56" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="K56" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="L56" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="M56" s="22">
+        <f t="shared" si="3"/>
+        <v>626</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A57" s="14">
+        <v>2227687</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="16">
+        <v>94945</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" s="18">
+        <v>500</v>
+      </c>
+      <c r="G57" s="19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3 años 5 meses</v>
-      </c>
-      <c r="H29" s="21" t="str">
+        <v>14 años 9 meses</v>
+      </c>
+      <c r="H57" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Inactivo</v>
       </c>
-      <c r="I29" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="L29" s="22" t="s">
+      <c r="I57" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J57" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="M29" s="23">
-        <v>34380</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
-        <v>2229218</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="17">
-        <v>301655</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="19">
-        <v>6968</v>
-      </c>
-      <c r="G31" s="20" t="str">
+      <c r="K57" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="L57" s="26"/>
+      <c r="M57" s="22">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A58" s="23">
+        <v>2230472</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="16">
+        <v>59178</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F58" s="18">
+        <v>270</v>
+      </c>
+      <c r="G58" s="19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>13 años 11 meses</v>
-      </c>
-      <c r="H31" s="21" t="str">
+        <v>15 años 11 meses</v>
+      </c>
+      <c r="H58" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Inactivo</v>
       </c>
-      <c r="I31" s="22" t="s">
+      <c r="I58" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J58" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="K58" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="L58" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="M58" s="22">
+        <f t="shared" si="3"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A59" s="14">
+        <v>2227569</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="16">
+        <v>42774</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" s="18">
+        <v>440</v>
+      </c>
+      <c r="G59" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>15 años 11 meses</v>
+      </c>
+      <c r="H59" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I59" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J59" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="K59" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="L59" s="25"/>
+      <c r="M59" s="22">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+    </row>
+    <row r="61" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A61" s="14">
+        <v>2229019</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="16">
+        <v>1220288</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F61" s="18"/>
+      <c r="G61" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>16 años 3 meses</v>
+      </c>
+      <c r="H61" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I61" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J31" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="L31" s="27"/>
-      <c r="M31" s="23">
-        <f>F31</f>
-        <v>6968</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-    </row>
-    <row r="33" spans="1:13" ht="36" x14ac:dyDescent="0.25">
-      <c r="A33" s="25">
-        <v>2315159</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="17">
-        <v>18555555</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="19">
-        <v>8386</v>
-      </c>
-      <c r="G33" s="20" t="str">
+      <c r="J61" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="K61" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="L61" s="25"/>
+      <c r="M61" s="22">
+        <f t="shared" ref="M61:M71" si="4">F61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A62" s="14">
+        <v>2250942</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="16">
+        <v>1021964.05</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F62" s="18">
+        <v>110</v>
+      </c>
+      <c r="G62" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>5 años 11 meses</v>
+      </c>
+      <c r="H62" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I62" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="J62" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="K62" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="L62" s="21"/>
+      <c r="M62" s="22">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="A63" s="14">
+        <v>2229057</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="16">
+        <v>992180</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="18"/>
+      <c r="G63" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>16 años 8 meses</v>
+      </c>
+      <c r="H63" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I63" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J63" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="K63" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="L63" s="21"/>
+      <c r="M63" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A64" s="14">
+        <v>2229104</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="16">
+        <v>976624</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F64" s="18">
+        <v>1508</v>
+      </c>
+      <c r="G64" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>15 años 8 meses</v>
+      </c>
+      <c r="H64" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I64" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J64" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="K64" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="L64" s="25"/>
+      <c r="M64" s="22">
+        <f t="shared" si="4"/>
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A65" s="14">
+        <v>2229107</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="16">
+        <v>784650</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F65" s="18">
+        <v>3764</v>
+      </c>
+      <c r="G65" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>16 años 5 meses</v>
+      </c>
+      <c r="H65" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J65" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="K65" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="L65" s="25"/>
+      <c r="M65" s="22">
+        <f t="shared" si="4"/>
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A66" s="14">
+        <v>2229103</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="16">
+        <v>705431</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F66" s="18">
+        <v>1048</v>
+      </c>
+      <c r="G66" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>15 años 8 meses</v>
+      </c>
+      <c r="H66" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I66" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J66" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="K66" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="L66" s="25"/>
+      <c r="M66" s="22">
+        <f t="shared" si="4"/>
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="14">
+        <v>2227333</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="16">
+        <v>133810</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" s="18"/>
+      <c r="G67" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>17 años 2 meses</v>
+      </c>
+      <c r="H67" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I67" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J67" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="K67" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="L67" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="M67" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A68" s="14">
+        <v>2229096</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="16">
+        <v>127810</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" s="18"/>
+      <c r="G68" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>17 años 1 meses</v>
+      </c>
+      <c r="H68" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I68" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J68" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="K68" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="L68" s="25"/>
+      <c r="M68" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A69" s="14">
+        <v>2228998</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="16">
+        <v>65000</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" s="18">
+        <v>365</v>
+      </c>
+      <c r="G69" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>14 años 8 meses</v>
+      </c>
+      <c r="H69" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I69" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J69" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="K69" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="L69" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="M69" s="22">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A70" s="23">
+        <v>2228997</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="16">
+        <v>54000</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" s="18">
+        <v>245</v>
+      </c>
+      <c r="G70" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>14 años 8 meses</v>
+      </c>
+      <c r="H70" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I70" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J70" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="K70" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="L70" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="M70" s="22">
+        <f t="shared" si="4"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A71" s="23">
+        <v>2229028</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="16">
+        <v>53820</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F71" s="18">
+        <v>235</v>
+      </c>
+      <c r="G71" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>14 años 10 meses</v>
+      </c>
+      <c r="H71" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Inactivo</v>
+      </c>
+      <c r="I71" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J71" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="K71" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="L71" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="M71" s="22">
+        <f t="shared" si="4"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
+    </row>
+    <row r="73" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="A73" s="23">
+        <v>2323841</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="16">
+        <v>11473859</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" s="18">
+        <v>56000</v>
+      </c>
+      <c r="G73" s="19" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>3 años 2 meses</v>
       </c>
-      <c r="H33" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J33" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="K33" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="L33" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="M33" s="23">
-        <f t="shared" ref="M33:M59" si="3">F33</f>
-        <v>8386</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
-        <v>2343430</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="17">
-        <v>16784127</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" s="19">
-        <v>4676</v>
-      </c>
-      <c r="G34" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3 años 0 meses</v>
-      </c>
-      <c r="H34" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="K34" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="L34" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="M34" s="23">
-        <f t="shared" si="3"/>
-        <v>4676</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="36" x14ac:dyDescent="0.25">
-      <c r="A35" s="25">
-        <v>2337801</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="17">
-        <v>13995962</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="19">
-        <v>2827</v>
-      </c>
-      <c r="G35" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3 años 1 meses</v>
-      </c>
-      <c r="H35" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="J35" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="K35" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="L35" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="M35" s="23">
-        <f t="shared" si="3"/>
-        <v>2827</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="36" x14ac:dyDescent="0.25">
-      <c r="A36" s="25">
-        <v>2331861</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="17">
-        <v>9954890</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="19">
-        <v>779</v>
-      </c>
-      <c r="G36" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3 años 1 meses</v>
-      </c>
-      <c r="H36" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J36" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="K36" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="L36" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="M36" s="23">
-        <f t="shared" si="3"/>
-        <v>779</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A37" s="25">
-        <v>2337768</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="17">
-        <v>9629731</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="19">
-        <v>3084</v>
-      </c>
-      <c r="G37" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3 años 1 meses</v>
-      </c>
-      <c r="H37" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J37" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="K37" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="L37" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="M37" s="23">
-        <f t="shared" si="3"/>
-        <v>3084</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="25">
-        <v>2307628</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="17">
-        <v>9213939</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="19">
-        <v>59</v>
-      </c>
-      <c r="G38" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>4 años 2 meses</v>
-      </c>
-      <c r="H38" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I38" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J38" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="K38" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="L38" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="M38" s="23">
-        <f t="shared" si="3"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="25">
-        <v>2342809</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="17">
-        <v>7955371</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="19">
-        <v>900</v>
-      </c>
-      <c r="G39" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3 años 4 meses</v>
-      </c>
-      <c r="H39" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I39" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J39" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="K39" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="L39" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="M39" s="23">
-        <f t="shared" si="3"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A40" s="25">
-        <v>2352291</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="17">
-        <v>7906257</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="19">
-        <v>3559</v>
-      </c>
-      <c r="G40" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3 años 1 meses</v>
-      </c>
-      <c r="H40" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I40" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J40" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="K40" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="L40" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="M40" s="23">
-        <f t="shared" si="3"/>
-        <v>3559</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A41" s="25">
-        <v>2329289</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="17">
-        <v>7002392</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F41" s="19">
-        <v>488</v>
-      </c>
-      <c r="G41" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3 años 3 meses</v>
-      </c>
-      <c r="H41" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I41" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J41" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="K41" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="L41" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="M41" s="23">
-        <f t="shared" si="3"/>
-        <v>488</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="25">
-        <v>2328511</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="17">
-        <v>5725259</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="19">
-        <v>884</v>
-      </c>
-      <c r="G42" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3 años 1 meses</v>
-      </c>
-      <c r="H42" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J42" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="K42" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="L42" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="M42" s="23">
-        <f t="shared" si="3"/>
-        <v>884</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A43" s="25">
-        <v>2340756</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="17">
-        <v>3999858</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="19">
-        <v>1736</v>
-      </c>
-      <c r="G43" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2 años 6 meses</v>
-      </c>
-      <c r="H43" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I43" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J43" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="K43" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="L43" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="M43" s="23">
-        <f t="shared" si="3"/>
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
-        <v>2228097</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="17">
-        <v>582173</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F44" s="19">
-        <v>95</v>
-      </c>
-      <c r="G44" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>15 años 11 meses</v>
-      </c>
-      <c r="H44" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I44" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J44" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="K44" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="L44" s="27"/>
-      <c r="M44" s="23">
-        <f t="shared" si="3"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="15">
-        <v>2227184</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="17">
-        <v>534450.4</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>16 años 5 meses</v>
-      </c>
-      <c r="H45" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I45" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J45" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="K45" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="L45" s="27"/>
-      <c r="M45" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A46" s="15">
-        <v>2230429</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="17">
-        <v>529436</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" s="19">
-        <v>428</v>
-      </c>
-      <c r="G46" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>15 años 6 meses</v>
-      </c>
-      <c r="H46" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I46" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J46" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="K46" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="L46" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="M46" s="23">
-        <f t="shared" si="3"/>
-        <v>428</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A47" s="15">
-        <v>2228264</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="17">
-        <v>503526</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="F47" s="19"/>
-      <c r="G47" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>16 años 5 meses</v>
-      </c>
-      <c r="H47" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I47" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J47" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="K47" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="L47" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="M47" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="36" x14ac:dyDescent="0.25">
-      <c r="A48" s="15">
-        <v>2227683</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="17">
-        <v>370991</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F48" s="19">
-        <v>1475</v>
-      </c>
-      <c r="G48" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>14 años 3 meses</v>
-      </c>
-      <c r="H48" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I48" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J48" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="K48" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="L48" s="27"/>
-      <c r="M48" s="23">
-        <f t="shared" si="3"/>
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A49" s="15">
-        <v>2231056</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="17">
-        <v>368399</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F49" s="19">
-        <v>474</v>
-      </c>
-      <c r="G49" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>14 años 11 meses</v>
-      </c>
-      <c r="H49" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I49" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J49" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="K49" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="L49" s="27"/>
-      <c r="M49" s="23">
-        <f t="shared" si="3"/>
-        <v>474</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A50" s="15">
-        <v>2227166</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="17">
-        <v>321961</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F50" s="19">
-        <v>1015</v>
-      </c>
-      <c r="G50" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>16 años 0 meses</v>
-      </c>
-      <c r="H50" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I50" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J50" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="K50" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="L50" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="M50" s="23">
-        <f t="shared" si="3"/>
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A51" s="15">
-        <v>2233612</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" s="17">
-        <v>303850</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F51" s="19">
-        <v>272</v>
-      </c>
-      <c r="G51" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>15 años 11 meses</v>
-      </c>
-      <c r="H51" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I51" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J51" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="K51" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="L51" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="M51" s="23">
-        <f t="shared" si="3"/>
-        <v>272</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="15">
-        <v>2230467</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="17">
-        <v>197630</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="F52" s="19">
-        <v>266</v>
-      </c>
-      <c r="G52" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>16 años 1 meses</v>
-      </c>
-      <c r="H52" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I52" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J52" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="K52" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="L52" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="M52" s="23">
-        <f t="shared" si="3"/>
-        <v>266</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A53" s="15">
-        <v>2227183</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" s="17">
-        <v>177186</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F53" s="19">
-        <v>211</v>
-      </c>
-      <c r="G53" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>15 años 11 meses</v>
-      </c>
-      <c r="H53" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I53" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J53" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="K53" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="L53" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="M53" s="23">
-        <f t="shared" si="3"/>
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A54" s="15">
-        <v>2230447</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="17">
-        <v>163604</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F54" s="19">
-        <v>278</v>
-      </c>
-      <c r="G54" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>15 años 11 meses</v>
-      </c>
-      <c r="H54" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I54" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J54" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="K54" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="L54" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="M54" s="23">
-        <f t="shared" si="3"/>
-        <v>278</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A55" s="15">
-        <v>2227741</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="17">
-        <v>127449</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F55" s="19">
-        <v>45</v>
-      </c>
-      <c r="G55" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>15 años 9 meses</v>
-      </c>
-      <c r="H55" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I55" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J55" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="K55" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="L55" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="M55" s="23">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A56" s="15">
-        <v>2227709</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="17">
-        <v>99517</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="F56" s="19">
-        <v>626</v>
-      </c>
-      <c r="G56" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>13 años 10 meses</v>
-      </c>
-      <c r="H56" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I56" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="J56" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="K56" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="L56" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="M56" s="23">
-        <f t="shared" si="3"/>
-        <v>626</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A57" s="15">
-        <v>2227687</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="17">
-        <v>94945</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F57" s="19">
-        <v>500</v>
-      </c>
-      <c r="G57" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>14 años 9 meses</v>
-      </c>
-      <c r="H57" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I57" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="J57" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="K57" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="L57" s="28"/>
-      <c r="M57" s="23">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A58" s="25">
-        <v>2230472</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="17">
-        <v>59178</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F58" s="19">
-        <v>270</v>
-      </c>
-      <c r="G58" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>15 años 11 meses</v>
-      </c>
-      <c r="H58" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I58" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="J58" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="K58" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="L58" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="M58" s="23">
-        <f t="shared" si="3"/>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A59" s="15">
-        <v>2227569</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" s="17">
-        <v>42774</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="F59" s="19">
-        <v>440</v>
-      </c>
-      <c r="G59" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>15 años 11 meses</v>
-      </c>
-      <c r="H59" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I59" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="J59" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="K59" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="L59" s="27"/>
-      <c r="M59" s="23">
-        <f t="shared" si="3"/>
-        <v>440</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-    </row>
-    <row r="61" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A61" s="15">
-        <v>2229019</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C61" s="17">
-        <v>1220288</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="F61" s="19"/>
-      <c r="G61" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>16 años 3 meses</v>
-      </c>
-      <c r="H61" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I61" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J61" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="K61" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="L61" s="27"/>
-      <c r="M61" s="23">
-        <f t="shared" ref="M61:M71" si="4">F61</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="36" x14ac:dyDescent="0.25">
-      <c r="A62" s="15">
-        <v>2250942</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="17">
-        <v>1021964.05</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="F62" s="19">
-        <v>110</v>
-      </c>
-      <c r="G62" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>5 años 11 meses</v>
-      </c>
-      <c r="H62" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I62" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="J62" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="K62" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="L62" s="22"/>
-      <c r="M62" s="23">
-        <f t="shared" si="4"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="36" x14ac:dyDescent="0.25">
-      <c r="A63" s="15">
-        <v>2229057</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="17">
-        <v>992180</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="F63" s="19"/>
-      <c r="G63" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>16 años 8 meses</v>
-      </c>
-      <c r="H63" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I63" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J63" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="K63" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="L63" s="22"/>
-      <c r="M63" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A64" s="15">
-        <v>2229104</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="17">
-        <v>976624</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F64" s="19">
-        <v>1508</v>
-      </c>
-      <c r="G64" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>15 años 8 meses</v>
-      </c>
-      <c r="H64" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I64" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J64" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="K64" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="L64" s="27"/>
-      <c r="M64" s="23">
-        <f t="shared" si="4"/>
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A65" s="15">
-        <v>2229107</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="17">
-        <v>784650</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F65" s="19">
-        <v>3764</v>
-      </c>
-      <c r="G65" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>16 años 5 meses</v>
-      </c>
-      <c r="H65" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I65" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J65" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="K65" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="L65" s="27"/>
-      <c r="M65" s="23">
-        <f t="shared" si="4"/>
-        <v>3764</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A66" s="15">
-        <v>2229103</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="17">
-        <v>705431</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F66" s="19">
-        <v>1048</v>
-      </c>
-      <c r="G66" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>15 años 8 meses</v>
-      </c>
-      <c r="H66" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I66" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J66" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="K66" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="L66" s="27"/>
-      <c r="M66" s="23">
-        <f t="shared" si="4"/>
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="15">
-        <v>2227333</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C67" s="17">
-        <v>133810</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F67" s="19"/>
-      <c r="G67" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>17 años 2 meses</v>
-      </c>
-      <c r="H67" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I67" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J67" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="K67" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="L67" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="M67" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="15">
-        <v>2229096</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C68" s="17">
-        <v>127810</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F68" s="19"/>
-      <c r="G68" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>17 años 1 meses</v>
-      </c>
-      <c r="H68" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I68" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J68" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="K68" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="L68" s="27"/>
-      <c r="M68" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A69" s="15">
-        <v>2228998</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69" s="17">
-        <v>65000</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="F69" s="19">
-        <v>365</v>
-      </c>
-      <c r="G69" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>14 años 8 meses</v>
-      </c>
-      <c r="H69" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I69" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="J69" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="K69" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="L69" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="M69" s="23">
-        <f t="shared" si="4"/>
-        <v>365</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A70" s="25">
-        <v>2228997</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C70" s="17">
-        <v>54000</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="F70" s="19">
-        <v>245</v>
-      </c>
-      <c r="G70" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>14 años 8 meses</v>
-      </c>
-      <c r="H70" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I70" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="J70" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="K70" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="L70" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="M70" s="23">
-        <f t="shared" si="4"/>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="25">
-        <v>2229028</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C71" s="17">
-        <v>53820</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F71" s="19">
-        <v>235</v>
-      </c>
-      <c r="G71" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>14 años 10 meses</v>
-      </c>
-      <c r="H71" s="21" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Inactivo</v>
-      </c>
-      <c r="I71" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="J71" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="K71" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="L71" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="M71" s="23">
-        <f t="shared" si="4"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="31"/>
-      <c r="L72" s="31"/>
-      <c r="M72" s="31"/>
-    </row>
-    <row r="73" spans="1:13" ht="36" x14ac:dyDescent="0.25">
-      <c r="A73" s="25">
-        <v>2323841</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="17">
-        <v>11473859</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="F73" s="19">
-        <v>56000</v>
-      </c>
-      <c r="G73" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3 años 2 meses</v>
-      </c>
-      <c r="H73" s="21" t="str">
+      <c r="H73" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Activo</v>
       </c>
-      <c r="I73" s="22" t="s">
+      <c r="I73" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J73" s="22" t="s">
+      <c r="J73" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="K73" s="22" t="s">
+      <c r="K73" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="L73" s="22" t="s">
+      <c r="L73" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="M73" s="23">
+      <c r="M73" s="22">
         <f>F73</f>
         <v>56000</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A74" s="15">
+    <row r="74" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A74" s="14">
         <v>2232236</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C74" s="16">
         <v>1840318</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="E74" s="19" t="s">
+      <c r="E74" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="F74" s="19">
+      <c r="F74" s="18">
         <v>72127</v>
       </c>
-      <c r="G74" s="20" t="str">
+      <c r="G74" s="19" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>16 años 2 meses</v>
       </c>
-      <c r="H74" s="21" t="str">
+      <c r="H74" s="20" t="str">
         <f t="shared" ref="H74:H125" ca="1" si="5">IF(QUOTIENT(_xlfn.DAYS(TODAY(),F74),360)&gt;=3,"Inactivo","Activo")</f>
         <v>Activo</v>
       </c>
-      <c r="I74" s="22" t="s">
+      <c r="I74" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J74" s="22" t="s">
+      <c r="J74" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="K74" s="22" t="s">
+      <c r="K74" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="L74" s="22" t="s">
+      <c r="L74" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M74" s="23">
+      <c r="M74" s="22">
         <f>F74</f>
         <v>72127</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A75" s="15">
+    <row r="75" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A75" s="14">
         <v>2227525</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C75" s="17">
+      <c r="C75" s="16">
         <v>464800</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="E75" s="19" t="s">
+      <c r="E75" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="F75" s="19"/>
-      <c r="G75" s="20" t="str">
+      <c r="F75" s="18"/>
+      <c r="G75" s="19" t="str">
         <f t="shared" ref="G75:G125" ca="1" si="6">QUOTIENT(_xlfn.DAYS(TODAY(),E75),360)&amp; " años " &amp; QUOTIENT(MOD(_xlfn.DAYS(TODAY(),E75),360),30)&amp; " meses"</f>
         <v>16 años 4 meses</v>
       </c>
-      <c r="H75" s="21" t="str">
+      <c r="H75" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I75" s="22" t="s">
+      <c r="I75" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J75" s="22" t="s">
+      <c r="J75" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="K75" s="32"/>
-      <c r="L75" s="27"/>
-      <c r="M75" s="23">
+      <c r="K75" s="28"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="22">
         <f>F75</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="15">
+    <row r="76" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A76" s="14">
         <v>2227524</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C76" s="17">
+      <c r="C76" s="16">
         <v>274747</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D76" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="E76" s="19" t="s">
+      <c r="E76" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="F76" s="19"/>
-      <c r="G76" s="20" t="str">
+      <c r="F76" s="18"/>
+      <c r="G76" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>16 años 4 meses</v>
       </c>
-      <c r="H76" s="21" t="str">
+      <c r="H76" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I76" s="22" t="s">
+      <c r="I76" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J76" s="22" t="s">
+      <c r="J76" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="K76" s="32"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="23">
+      <c r="K76" s="28"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="22">
         <f>F76</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A77" s="15">
+    <row r="77" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A77" s="14">
         <v>2226853</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C77" s="17">
+      <c r="C77" s="16">
         <v>258067</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E77" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="F77" s="19"/>
-      <c r="G77" s="20" t="str">
+      <c r="F77" s="18"/>
+      <c r="G77" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>16 años 4 meses</v>
       </c>
-      <c r="H77" s="21" t="str">
+      <c r="H77" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I77" s="22" t="s">
+      <c r="I77" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="J77" s="22" t="s">
+      <c r="J77" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="K77" s="22" t="s">
+      <c r="K77" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="L77" s="27"/>
-      <c r="M77" s="23">
+      <c r="L77" s="25"/>
+      <c r="M77" s="22">
         <f>F77</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="31"/>
-    </row>
-    <row r="79" spans="1:13" ht="36" x14ac:dyDescent="0.25">
-      <c r="A79" s="15">
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
+    </row>
+    <row r="79" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="A79" s="14">
         <v>2233835</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C79" s="17">
+      <c r="C79" s="16">
         <v>29504252</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D79" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="E79" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F79" s="18">
         <v>763</v>
       </c>
-      <c r="G79" s="20" t="str">
+      <c r="G79" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>3 años 1 meses</v>
       </c>
-      <c r="H79" s="21" t="str">
+      <c r="H79" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I79" s="22" t="s">
+      <c r="I79" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J79" s="22" t="s">
+      <c r="J79" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="K79" s="22" t="s">
+      <c r="K79" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="L79" s="27"/>
-      <c r="M79" s="23">
+      <c r="L79" s="25"/>
+      <c r="M79" s="22">
         <f>F79</f>
         <v>763</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A80" s="25">
+    <row r="80" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A80" s="23">
         <v>2340368</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C80" s="17">
+      <c r="C80" s="16">
         <v>4924013</v>
       </c>
-      <c r="D80" s="19" t="s">
+      <c r="D80" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="E80" s="19" t="s">
+      <c r="E80" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F80" s="18">
         <v>1709333</v>
       </c>
-      <c r="G80" s="20" t="str">
+      <c r="G80" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>3 años 4 meses</v>
       </c>
-      <c r="H80" s="21" t="str">
+      <c r="H80" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Activo</v>
       </c>
-      <c r="I80" s="22" t="s">
+      <c r="I80" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J80" s="22" t="s">
+      <c r="J80" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="K80" s="22" t="s">
+      <c r="K80" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="L80" s="22" t="s">
+      <c r="L80" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="M80" s="23">
+      <c r="M80" s="22">
         <f>F80</f>
         <v>1709333</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="29" t="s">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="29"/>
-      <c r="L81" s="29"/>
-      <c r="M81" s="29"/>
-    </row>
-    <row r="82" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A82" s="15">
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="35"/>
+    </row>
+    <row r="82" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A82" s="14">
         <v>2233891</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C82" s="17">
+      <c r="C82" s="16">
         <v>16301283</v>
       </c>
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="E82" s="19" t="s">
+      <c r="E82" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="F82" s="19">
+      <c r="F82" s="18">
         <v>37420</v>
       </c>
-      <c r="G82" s="20" t="str">
+      <c r="G82" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>2 años 6 meses</v>
       </c>
-      <c r="H82" s="21" t="str">
+      <c r="H82" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I82" s="22" t="s">
+      <c r="I82" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J82" s="22" t="s">
+      <c r="J82" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="K82" s="22" t="s">
+      <c r="K82" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="L82" s="27"/>
-      <c r="M82" s="23">
+      <c r="L82" s="25"/>
+      <c r="M82" s="22">
         <f>F82</f>
         <v>37420</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="36" x14ac:dyDescent="0.25">
-      <c r="A83" s="15">
+    <row r="83" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="A83" s="14">
         <v>2234328</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C83" s="17">
+      <c r="C83" s="16">
         <v>5526977</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="E83" s="19" t="s">
+      <c r="E83" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F83" s="19">
+      <c r="F83" s="18">
         <v>2130</v>
       </c>
-      <c r="G83" s="20" t="str">
+      <c r="G83" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>3 años 2 meses</v>
       </c>
-      <c r="H83" s="21" t="str">
+      <c r="H83" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I83" s="22" t="s">
+      <c r="I83" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J83" s="22" t="s">
+      <c r="J83" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="K83" s="32"/>
-      <c r="L83" s="27"/>
-      <c r="M83" s="23">
+      <c r="K83" s="28"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="22">
         <f>F83</f>
         <v>2130</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="31" t="s">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="31"/>
-      <c r="K84" s="31"/>
-      <c r="L84" s="31"/>
-      <c r="M84" s="31"/>
-    </row>
-    <row r="85" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A85" s="25">
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+    </row>
+    <row r="85" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A85" s="23">
         <v>2344910</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="17">
+      <c r="C85" s="16">
         <v>114376239</v>
       </c>
-      <c r="D85" s="18" t="s">
+      <c r="D85" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E85" s="19" t="s">
+      <c r="E85" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="F85" s="19">
+      <c r="F85" s="18">
         <v>58390</v>
       </c>
-      <c r="G85" s="20" t="str">
+      <c r="G85" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>3 años 3 meses</v>
       </c>
-      <c r="H85" s="21" t="str">
+      <c r="H85" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Activo</v>
       </c>
-      <c r="I85" s="22" t="s">
+      <c r="I85" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J85" s="22" t="s">
+      <c r="J85" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="K85" s="22" t="s">
+      <c r="K85" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="L85" s="27"/>
-      <c r="M85" s="23">
+      <c r="L85" s="25"/>
+      <c r="M85" s="22">
         <f t="shared" ref="M85:M118" si="7">F85</f>
         <v>58390</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="36" x14ac:dyDescent="0.25">
-      <c r="A86" s="25">
+    <row r="86" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="A86" s="23">
         <v>2343407</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="17">
+      <c r="C86" s="16">
         <v>66715437</v>
       </c>
-      <c r="D86" s="18" t="s">
+      <c r="D86" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E86" s="19" t="s">
+      <c r="E86" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="19">
+      <c r="F86" s="18">
         <v>52766</v>
       </c>
-      <c r="G86" s="20" t="str">
+      <c r="G86" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>3 años 3 meses</v>
       </c>
-      <c r="H86" s="21" t="str">
+      <c r="H86" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Activo</v>
       </c>
-      <c r="I86" s="22" t="s">
+      <c r="I86" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J86" s="22" t="s">
+      <c r="J86" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="K86" s="22" t="s">
+      <c r="K86" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="L86" s="22" t="s">
+      <c r="L86" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="M86" s="23">
+      <c r="M86" s="22">
         <f t="shared" si="7"/>
         <v>52766</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A87" s="15">
+    <row r="87" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A87" s="14">
         <v>2372478</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C87" s="17">
+      <c r="C87" s="16">
         <v>29644856</v>
       </c>
-      <c r="D87" s="18" t="s">
+      <c r="D87" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E87" s="19" t="s">
+      <c r="E87" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F87" s="19">
+      <c r="F87" s="18">
         <v>11562</v>
       </c>
-      <c r="G87" s="20" t="str">
+      <c r="G87" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>3 años 1 meses</v>
       </c>
-      <c r="H87" s="21" t="str">
+      <c r="H87" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I87" s="22" t="s">
+      <c r="I87" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J87" s="22" t="s">
+      <c r="J87" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="K87" s="22" t="s">
+      <c r="K87" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="L87" s="22" t="s">
+      <c r="L87" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="M87" s="23">
+      <c r="M87" s="22">
         <f t="shared" si="7"/>
         <v>11562</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A88" s="25">
+    <row r="88" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A88" s="23">
         <v>2344420</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C88" s="17">
+      <c r="C88" s="16">
         <v>17759612</v>
       </c>
-      <c r="D88" s="18" t="s">
+      <c r="D88" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E88" s="19" t="s">
+      <c r="E88" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F88" s="19">
+      <c r="F88" s="18">
         <v>4237</v>
       </c>
-      <c r="G88" s="20" t="str">
+      <c r="G88" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>3 años 3 meses</v>
       </c>
-      <c r="H88" s="21" t="str">
+      <c r="H88" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I88" s="22" t="s">
+      <c r="I88" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J88" s="22" t="s">
+      <c r="J88" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="K88" s="22" t="s">
+      <c r="K88" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="L88" s="22" t="s">
+      <c r="L88" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="M88" s="23">
+      <c r="M88" s="22">
         <f t="shared" si="7"/>
         <v>4237</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="36" x14ac:dyDescent="0.25">
-      <c r="A89" s="25">
+    <row r="89" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="A89" s="23">
         <v>2305409</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C89" s="17">
+      <c r="C89" s="16">
         <v>16912426</v>
       </c>
-      <c r="D89" s="18" t="s">
+      <c r="D89" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E89" s="19" t="s">
+      <c r="E89" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="F89" s="19">
+      <c r="F89" s="18">
         <v>1627</v>
       </c>
-      <c r="G89" s="20" t="str">
+      <c r="G89" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>4 años 2 meses</v>
       </c>
-      <c r="H89" s="21" t="str">
+      <c r="H89" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I89" s="22" t="s">
+      <c r="I89" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J89" s="22" t="s">
+      <c r="J89" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="K89" s="22" t="s">
+      <c r="K89" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="L89" s="27"/>
-      <c r="M89" s="23">
+      <c r="L89" s="25"/>
+      <c r="M89" s="22">
         <f t="shared" si="7"/>
         <v>1627</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A90" s="25">
+    <row r="90" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A90" s="23">
         <v>2312943</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="17">
+      <c r="C90" s="16">
         <v>5513817</v>
       </c>
-      <c r="D90" s="18" t="s">
+      <c r="D90" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E90" s="19" t="s">
+      <c r="E90" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F90" s="19">
+      <c r="F90" s="18">
         <v>8341</v>
       </c>
-      <c r="G90" s="20" t="str">
+      <c r="G90" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>4 años 4 meses</v>
       </c>
-      <c r="H90" s="21" t="str">
+      <c r="H90" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I90" s="22" t="s">
+      <c r="I90" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J90" s="21"/>
-      <c r="K90" s="32"/>
-      <c r="L90" s="27"/>
-      <c r="M90" s="23">
+      <c r="J90" s="20"/>
+      <c r="K90" s="28"/>
+      <c r="L90" s="25"/>
+      <c r="M90" s="22">
         <f t="shared" si="7"/>
         <v>8341</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A91" s="25">
+    <row r="91" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="A91" s="23">
         <v>2313519</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C91" s="17">
+      <c r="C91" s="16">
         <v>2608606</v>
       </c>
-      <c r="D91" s="18" t="s">
+      <c r="D91" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E91" s="19" t="s">
+      <c r="E91" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="19">
+      <c r="F91" s="18">
         <v>3235</v>
       </c>
-      <c r="G91" s="20" t="str">
+      <c r="G91" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>4 años 4 meses</v>
       </c>
-      <c r="H91" s="21" t="str">
+      <c r="H91" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I91" s="22" t="s">
+      <c r="I91" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J91" s="22" t="s">
+      <c r="J91" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="K91" s="32"/>
-      <c r="L91" s="27"/>
-      <c r="M91" s="23">
+      <c r="K91" s="28"/>
+      <c r="L91" s="25"/>
+      <c r="M91" s="22">
         <f t="shared" si="7"/>
         <v>3235</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="36" x14ac:dyDescent="0.25">
-      <c r="A92" s="15">
+    <row r="92" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="A92" s="14">
         <v>2230228</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C92" s="17">
+      <c r="C92" s="16">
         <v>1591937</v>
       </c>
-      <c r="D92" s="18" t="s">
+      <c r="D92" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E92" s="19" t="s">
+      <c r="E92" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="F92" s="19">
+      <c r="F92" s="18">
         <v>7563</v>
       </c>
-      <c r="G92" s="20" t="str">
+      <c r="G92" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>13 años 6 meses</v>
       </c>
-      <c r="H92" s="21" t="str">
+      <c r="H92" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I92" s="22" t="s">
+      <c r="I92" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J92" s="22" t="s">
+      <c r="J92" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="K92" s="22" t="s">
+      <c r="K92" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="L92" s="22" t="s">
+      <c r="L92" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="M92" s="23">
+      <c r="M92" s="22">
         <f t="shared" si="7"/>
         <v>7563</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93" s="25">
+    <row r="93" spans="1:13" ht="72" x14ac:dyDescent="0.2">
+      <c r="A93" s="23">
         <v>2233713</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C93" s="17">
+      <c r="C93" s="16">
         <v>1591771</v>
       </c>
-      <c r="D93" s="18" t="s">
+      <c r="D93" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E93" s="19" t="s">
+      <c r="E93" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F93" s="19">
+      <c r="F93" s="18">
         <v>4154</v>
       </c>
-      <c r="G93" s="20" t="str">
+      <c r="G93" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>13 años 9 meses</v>
       </c>
-      <c r="H93" s="21" t="str">
+      <c r="H93" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I93" s="22" t="s">
+      <c r="I93" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J93" s="22" t="s">
+      <c r="J93" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="K93" s="22" t="s">
+      <c r="K93" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="L93" s="22" t="s">
+      <c r="L93" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="M93" s="23">
+      <c r="M93" s="22">
         <f t="shared" si="7"/>
         <v>4154</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A94" s="15">
+    <row r="94" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A94" s="14">
         <v>2230227</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C94" s="17">
+      <c r="C94" s="16">
         <v>997855</v>
       </c>
-      <c r="D94" s="18" t="s">
+      <c r="D94" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E94" s="19" t="s">
+      <c r="E94" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="F94" s="19"/>
-      <c r="G94" s="20" t="str">
+      <c r="F94" s="18"/>
+      <c r="G94" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>17 años 1 meses</v>
       </c>
-      <c r="H94" s="21" t="str">
+      <c r="H94" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I94" s="22" t="s">
+      <c r="I94" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J94" s="22" t="s">
+      <c r="J94" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="K94" s="32" t="s">
+      <c r="K94" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="L94" s="27"/>
-      <c r="M94" s="23">
+      <c r="L94" s="25"/>
+      <c r="M94" s="22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A95" s="15">
+    <row r="95" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A95" s="14">
         <v>2226871</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C95" s="17">
+      <c r="C95" s="16">
         <v>883427</v>
       </c>
-      <c r="D95" s="18" t="s">
+      <c r="D95" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E95" s="19" t="s">
+      <c r="E95" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="F95" s="19"/>
-      <c r="G95" s="20" t="str">
+      <c r="F95" s="18"/>
+      <c r="G95" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>16 años 7 meses</v>
       </c>
-      <c r="H95" s="21" t="str">
+      <c r="H95" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I95" s="22" t="s">
+      <c r="I95" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J95" s="22" t="s">
+      <c r="J95" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="K95" s="32"/>
-      <c r="L95" s="27"/>
-      <c r="M95" s="23">
+      <c r="K95" s="28"/>
+      <c r="L95" s="25"/>
+      <c r="M95" s="22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A96" s="15">
+    <row r="96" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A96" s="14">
         <v>2169380</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C96" s="17">
+      <c r="C96" s="16">
         <v>674572</v>
       </c>
-      <c r="D96" s="18" t="s">
+      <c r="D96" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E96" s="19" t="s">
+      <c r="E96" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F96" s="19">
+      <c r="F96" s="18">
         <v>1950</v>
       </c>
-      <c r="G96" s="20" t="str">
+      <c r="G96" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>14 años 0 meses</v>
       </c>
-      <c r="H96" s="21" t="str">
+      <c r="H96" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I96" s="22" t="s">
+      <c r="I96" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J96" s="22" t="s">
+      <c r="J96" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="K96" s="32" t="s">
+      <c r="K96" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="L96" s="27"/>
-      <c r="M96" s="23">
+      <c r="L96" s="25"/>
+      <c r="M96" s="22">
         <f t="shared" si="7"/>
         <v>1950</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A97" s="25">
+    <row r="97" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="A97" s="23">
         <v>2230146</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C97" s="17">
+      <c r="C97" s="16">
         <v>672690</v>
       </c>
-      <c r="D97" s="18" t="s">
+      <c r="D97" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E97" s="19" t="s">
+      <c r="E97" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="F97" s="19">
+      <c r="F97" s="18">
         <v>274622</v>
       </c>
-      <c r="G97" s="20" t="str">
+      <c r="G97" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>16 años 2 meses</v>
-      </c>
-      <c r="H97" s="21" t="str">
+        <v>16 años 3 meses</v>
+      </c>
+      <c r="H97" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Activo</v>
       </c>
-      <c r="I97" s="22" t="s">
+      <c r="I97" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J97" s="22" t="s">
+      <c r="J97" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="K97" s="32" t="s">
+      <c r="K97" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="L97" s="27"/>
-      <c r="M97" s="23">
+      <c r="L97" s="25"/>
+      <c r="M97" s="22">
         <f t="shared" si="7"/>
         <v>274622</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A98" s="15">
+    <row r="98" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A98" s="14">
         <v>2230226</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C98" s="17">
+      <c r="C98" s="16">
         <v>662075</v>
       </c>
-      <c r="D98" s="18" t="s">
+      <c r="D98" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E98" s="19" t="s">
+      <c r="E98" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="F98" s="19">
+      <c r="F98" s="18">
         <v>16632</v>
       </c>
-      <c r="G98" s="20" t="str">
+      <c r="G98" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>14 años 7 meses</v>
       </c>
-      <c r="H98" s="21" t="str">
+      <c r="H98" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I98" s="22" t="s">
+      <c r="I98" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J98" s="22" t="s">
+      <c r="J98" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="K98" s="22" t="s">
+      <c r="K98" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="L98" s="22" t="s">
+      <c r="L98" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="M98" s="23">
+      <c r="M98" s="22">
         <f t="shared" si="7"/>
         <v>16632</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="15">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" s="14">
         <v>2170465</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C99" s="17">
+      <c r="C99" s="16">
         <v>623393</v>
       </c>
-      <c r="D99" s="18" t="s">
+      <c r="D99" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E99" s="19" t="s">
+      <c r="E99" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F99" s="19">
+      <c r="F99" s="18">
         <v>207017</v>
       </c>
-      <c r="G99" s="20" t="str">
+      <c r="G99" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>14 años 0 meses</v>
       </c>
-      <c r="H99" s="21" t="str">
+      <c r="H99" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Activo</v>
       </c>
-      <c r="I99" s="22" t="s">
+      <c r="I99" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J99" s="22" t="s">
+      <c r="J99" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="K99" s="22" t="s">
+      <c r="K99" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="L99" s="22" t="s">
+      <c r="L99" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="M99" s="23">
+      <c r="M99" s="22">
         <f t="shared" si="7"/>
         <v>207017</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A100" s="25">
+    <row r="100" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A100" s="23">
         <v>2230212</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C100" s="17">
+      <c r="C100" s="16">
         <v>421580</v>
       </c>
-      <c r="D100" s="18" t="s">
+      <c r="D100" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E100" s="19" t="s">
+      <c r="E100" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="F100" s="19">
+      <c r="F100" s="18">
         <v>3649</v>
       </c>
-      <c r="G100" s="20" t="str">
+      <c r="G100" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>14 años 7 meses</v>
-      </c>
-      <c r="H100" s="21" t="str">
+        <v>14 años 8 meses</v>
+      </c>
+      <c r="H100" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I100" s="22" t="s">
+      <c r="I100" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J100" s="22" t="s">
+      <c r="J100" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="K100" s="22" t="s">
+      <c r="K100" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="L100" s="22" t="s">
+      <c r="L100" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="M100" s="23">
+      <c r="M100" s="22">
         <f t="shared" si="7"/>
         <v>3649</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A101" s="25">
+    <row r="101" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A101" s="23">
         <v>2231957</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C101" s="17">
+      <c r="C101" s="16">
         <v>372808</v>
       </c>
-      <c r="D101" s="18" t="s">
+      <c r="D101" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E101" s="19" t="s">
+      <c r="E101" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="F101" s="19">
+      <c r="F101" s="18">
         <v>274622</v>
       </c>
-      <c r="G101" s="20" t="str">
+      <c r="G101" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>15 años 9 meses</v>
-      </c>
-      <c r="H101" s="21" t="str">
+        <v>15 años 10 meses</v>
+      </c>
+      <c r="H101" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Activo</v>
       </c>
-      <c r="I101" s="22" t="s">
+      <c r="I101" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J101" s="22" t="s">
+      <c r="J101" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="K101" s="32"/>
-      <c r="L101" s="27"/>
-      <c r="M101" s="23">
+      <c r="K101" s="28"/>
+      <c r="L101" s="25"/>
+      <c r="M101" s="22">
         <f t="shared" si="7"/>
         <v>274622</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A102" s="15">
+    <row r="102" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A102" s="14">
         <v>2172592</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C102" s="17">
+      <c r="C102" s="16">
         <v>198900</v>
       </c>
-      <c r="D102" s="18" t="s">
+      <c r="D102" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E102" s="19" t="s">
+      <c r="E102" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F102" s="19">
+      <c r="F102" s="18">
         <v>1384</v>
       </c>
-      <c r="G102" s="20" t="str">
+      <c r="G102" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>14 años 0 meses</v>
       </c>
-      <c r="H102" s="21" t="str">
+      <c r="H102" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I102" s="22" t="s">
+      <c r="I102" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J102" s="22" t="s">
+      <c r="J102" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="K102" s="32"/>
-      <c r="L102" s="27"/>
-      <c r="M102" s="23">
+      <c r="K102" s="28"/>
+      <c r="L102" s="25"/>
+      <c r="M102" s="22">
         <f t="shared" si="7"/>
         <v>1384</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="15">
+    <row r="103" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A103" s="14">
         <v>2230832</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C103" s="17">
+      <c r="C103" s="16">
         <v>191800</v>
       </c>
-      <c r="D103" s="18" t="s">
+      <c r="D103" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E103" s="19" t="s">
+      <c r="E103" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="F103" s="19">
+      <c r="F103" s="18">
         <v>3694</v>
       </c>
-      <c r="G103" s="20" t="str">
+      <c r="G103" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>15 años 5 meses</v>
       </c>
-      <c r="H103" s="21" t="str">
+      <c r="H103" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I103" s="22" t="s">
+      <c r="I103" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J103" s="22" t="s">
+      <c r="J103" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="K103" s="22" t="s">
+      <c r="K103" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="L103" s="22" t="s">
+      <c r="L103" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="M103" s="23">
+      <c r="M103" s="22">
         <f t="shared" si="7"/>
         <v>3694</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A104" s="25">
+    <row r="104" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A104" s="23">
         <v>2170346</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C104" s="17">
+      <c r="C104" s="16">
         <v>95625</v>
       </c>
-      <c r="D104" s="18" t="s">
+      <c r="D104" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E104" s="19" t="s">
+      <c r="E104" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F104" s="19">
+      <c r="F104" s="18">
         <v>6660</v>
       </c>
-      <c r="G104" s="20" t="str">
+      <c r="G104" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>14 años 0 meses</v>
       </c>
-      <c r="H104" s="21" t="str">
+      <c r="H104" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I104" s="22" t="s">
+      <c r="I104" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J104" s="22" t="s">
+      <c r="J104" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="K104" s="22" t="s">
+      <c r="K104" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="L104" s="22" t="s">
+      <c r="L104" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="M104" s="23">
+      <c r="M104" s="22">
         <f t="shared" si="7"/>
         <v>6660</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A105" s="15">
+    <row r="105" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A105" s="14">
         <v>2170433</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C105" s="17">
+      <c r="C105" s="16">
         <v>95625</v>
       </c>
-      <c r="D105" s="18" t="s">
+      <c r="D105" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E105" s="19" t="s">
+      <c r="E105" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F105" s="19">
+      <c r="F105" s="18">
         <v>4942</v>
       </c>
-      <c r="G105" s="20" t="str">
+      <c r="G105" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>14 años 0 meses</v>
       </c>
-      <c r="H105" s="21" t="str">
+      <c r="H105" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I105" s="22" t="s">
+      <c r="I105" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J105" s="22" t="s">
+      <c r="J105" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="K105" s="22" t="s">
+      <c r="K105" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="L105" s="22" t="s">
+      <c r="L105" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="M105" s="23">
+      <c r="M105" s="22">
         <f t="shared" si="7"/>
         <v>4942</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A106" s="15">
+    <row r="106" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A106" s="14">
         <v>2170384</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="C106" s="17">
+      <c r="C106" s="16">
         <v>95625</v>
       </c>
-      <c r="D106" s="18" t="s">
+      <c r="D106" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E106" s="19" t="s">
+      <c r="E106" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F106" s="19">
+      <c r="F106" s="18">
         <v>7241</v>
       </c>
-      <c r="G106" s="20" t="str">
+      <c r="G106" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>14 años 0 meses</v>
       </c>
-      <c r="H106" s="21" t="str">
+      <c r="H106" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I106" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="J106" s="28" t="s">
+      <c r="I106" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J106" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="K106" s="28" t="s">
+      <c r="K106" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="L106" s="28" t="s">
+      <c r="L106" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="M106" s="23">
+      <c r="M106" s="22">
         <f t="shared" si="7"/>
         <v>7241</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A107" s="25">
+    <row r="107" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A107" s="23">
         <v>2170343</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C107" s="17">
+      <c r="C107" s="16">
         <v>95625</v>
       </c>
-      <c r="D107" s="18" t="s">
+      <c r="D107" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E107" s="19" t="s">
+      <c r="E107" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F107" s="19">
+      <c r="F107" s="18">
         <v>8523</v>
       </c>
-      <c r="G107" s="20" t="str">
+      <c r="G107" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>14 años 0 meses</v>
       </c>
-      <c r="H107" s="21" t="str">
+      <c r="H107" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I107" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="J107" s="28" t="s">
+      <c r="I107" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J107" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="K107" s="28" t="s">
+      <c r="K107" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="L107" s="28" t="s">
+      <c r="L107" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="M107" s="23">
+      <c r="M107" s="22">
         <f t="shared" si="7"/>
         <v>8523</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A108" s="15">
+    <row r="108" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A108" s="14">
         <v>2170416</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C108" s="17">
+      <c r="C108" s="16">
         <v>95625</v>
       </c>
-      <c r="D108" s="18" t="s">
+      <c r="D108" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E108" s="19" t="s">
+      <c r="E108" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F108" s="19">
+      <c r="F108" s="18">
         <v>8063</v>
       </c>
-      <c r="G108" s="20" t="str">
+      <c r="G108" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>14 años 0 meses</v>
       </c>
-      <c r="H108" s="21" t="str">
+      <c r="H108" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I108" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="J108" s="28" t="s">
+      <c r="I108" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J108" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="K108" s="28" t="s">
+      <c r="K108" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="L108" s="28" t="s">
+      <c r="L108" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="M108" s="23">
+      <c r="M108" s="22">
         <f t="shared" si="7"/>
         <v>8063</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A109" s="15">
+    <row r="109" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A109" s="14">
         <v>2170382</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C109" s="17">
+      <c r="C109" s="16">
         <v>95329</v>
       </c>
-      <c r="D109" s="18" t="s">
+      <c r="D109" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E109" s="19" t="s">
+      <c r="E109" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F109" s="19">
+      <c r="F109" s="18">
         <v>9969</v>
       </c>
-      <c r="G109" s="20" t="str">
+      <c r="G109" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>14 años 0 meses</v>
       </c>
-      <c r="H109" s="21" t="str">
+      <c r="H109" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I109" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="J109" s="28" t="s">
+      <c r="I109" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J109" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="K109" s="28" t="s">
+      <c r="K109" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="L109" s="28" t="s">
+      <c r="L109" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="M109" s="23">
+      <c r="M109" s="22">
         <f t="shared" si="7"/>
         <v>9969</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A110" s="25">
+    <row r="110" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A110" s="23">
         <v>2170345</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C110" s="17">
+      <c r="C110" s="16">
         <v>94680</v>
       </c>
-      <c r="D110" s="18" t="s">
+      <c r="D110" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E110" s="19" t="s">
+      <c r="E110" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F110" s="19">
+      <c r="F110" s="18">
         <v>6323</v>
       </c>
-      <c r="G110" s="20" t="str">
+      <c r="G110" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>14 años 0 meses</v>
       </c>
-      <c r="H110" s="21" t="str">
+      <c r="H110" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I110" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="J110" s="28" t="s">
+      <c r="I110" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J110" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="K110" s="28" t="s">
+      <c r="K110" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="L110" s="28" t="s">
+      <c r="L110" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="M110" s="23">
+      <c r="M110" s="22">
         <f t="shared" si="7"/>
         <v>6323</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="36" x14ac:dyDescent="0.25">
-      <c r="A111" s="15">
+    <row r="111" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+      <c r="A111" s="14">
         <v>2170434</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C111" s="17">
+      <c r="C111" s="16">
         <v>92790</v>
       </c>
-      <c r="D111" s="18" t="s">
+      <c r="D111" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E111" s="19" t="s">
+      <c r="E111" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F111" s="19">
+      <c r="F111" s="18">
         <v>5353</v>
       </c>
-      <c r="G111" s="20" t="str">
+      <c r="G111" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>14 años 0 meses</v>
       </c>
-      <c r="H111" s="21" t="str">
+      <c r="H111" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I111" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="J111" s="28" t="s">
+      <c r="I111" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J111" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="K111" s="28" t="s">
+      <c r="K111" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="L111" s="28" t="s">
+      <c r="L111" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="M111" s="23">
+      <c r="M111" s="22">
         <f t="shared" si="7"/>
         <v>5353</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A112" s="15">
+    <row r="112" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A112" s="14">
         <v>2170479</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C112" s="17">
+      <c r="C112" s="16">
         <v>91759</v>
       </c>
-      <c r="D112" s="18" t="s">
+      <c r="D112" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E112" s="19" t="s">
+      <c r="E112" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F112" s="19">
+      <c r="F112" s="18">
         <v>1889</v>
       </c>
-      <c r="G112" s="20" t="str">
+      <c r="G112" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>14 años 0 meses</v>
       </c>
-      <c r="H112" s="21" t="str">
+      <c r="H112" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I112" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="J112" s="28" t="s">
+      <c r="I112" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J112" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="K112" s="28" t="s">
+      <c r="K112" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="L112" s="28" t="s">
+      <c r="L112" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="M112" s="23">
+      <c r="M112" s="22">
         <f t="shared" si="7"/>
         <v>1889</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A113" s="23">
         <v>2170460</v>
       </c>
-      <c r="B113" s="16" t="s">
+      <c r="B113" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="C113" s="17">
+      <c r="C113" s="16">
         <v>91759</v>
       </c>
-      <c r="D113" s="18" t="s">
+      <c r="D113" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E113" s="19" t="s">
+      <c r="E113" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F113" s="19">
+      <c r="F113" s="18">
         <v>8260</v>
       </c>
-      <c r="G113" s="20" t="str">
+      <c r="G113" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>14 años 0 meses</v>
       </c>
-      <c r="H113" s="21" t="str">
+      <c r="H113" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I113" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="J113" s="28" t="s">
+      <c r="I113" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J113" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="K113" s="28" t="s">
+      <c r="K113" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="L113" s="28" t="s">
+      <c r="L113" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="M113" s="23">
+      <c r="M113" s="22">
         <f t="shared" si="7"/>
         <v>8260</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A114" s="25">
+    <row r="114" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A114" s="23">
         <v>2170456</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C114" s="17">
+      <c r="C114" s="16">
         <v>91759</v>
       </c>
-      <c r="D114" s="18" t="s">
+      <c r="D114" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E114" s="19" t="s">
+      <c r="E114" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F114" s="19">
+      <c r="F114" s="18">
         <v>4070</v>
       </c>
-      <c r="G114" s="20" t="str">
+      <c r="G114" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>14 años 0 meses</v>
       </c>
-      <c r="H114" s="21" t="str">
+      <c r="H114" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I114" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="J114" s="28" t="s">
+      <c r="I114" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J114" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="K114" s="28" t="s">
+      <c r="K114" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="L114" s="28" t="s">
+      <c r="L114" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="M114" s="23">
+      <c r="M114" s="22">
         <f t="shared" si="7"/>
         <v>4070</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A115" s="25">
+    <row r="115" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A115" s="23">
         <v>2170457</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="B115" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C115" s="17">
+      <c r="C115" s="16">
         <v>91759</v>
       </c>
-      <c r="D115" s="18" t="s">
+      <c r="D115" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E115" s="19" t="s">
+      <c r="E115" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F115" s="19">
+      <c r="F115" s="18">
         <v>6917</v>
       </c>
-      <c r="G115" s="20" t="str">
+      <c r="G115" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>14 años 0 meses</v>
       </c>
-      <c r="H115" s="21" t="str">
+      <c r="H115" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I115" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="J115" s="28" t="s">
+      <c r="I115" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J115" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="K115" s="28" t="s">
+      <c r="K115" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="L115" s="28" t="s">
+      <c r="L115" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="M115" s="23">
+      <c r="M115" s="22">
         <f t="shared" si="7"/>
         <v>6917</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A116" s="25">
+    <row r="116" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A116" s="23">
         <v>2170454</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C116" s="17">
+      <c r="C116" s="16">
         <v>91759</v>
       </c>
-      <c r="D116" s="18" t="s">
+      <c r="D116" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E116" s="19" t="s">
+      <c r="E116" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F116" s="19">
+      <c r="F116" s="18">
         <v>8260</v>
       </c>
-      <c r="G116" s="20" t="str">
+      <c r="G116" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>14 años 0 meses</v>
       </c>
-      <c r="H116" s="21" t="str">
+      <c r="H116" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I116" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="J116" s="28" t="s">
+      <c r="I116" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J116" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="K116" s="28" t="s">
+      <c r="K116" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="L116" s="28" t="s">
+      <c r="L116" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="M116" s="23">
+      <c r="M116" s="22">
         <f t="shared" si="7"/>
         <v>8260</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A117" s="25">
+    <row r="117" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A117" s="23">
         <v>2170459</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C117" s="17">
+      <c r="C117" s="16">
         <v>91431</v>
       </c>
-      <c r="D117" s="18" t="s">
+      <c r="D117" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E117" s="19" t="s">
+      <c r="E117" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F117" s="19">
+      <c r="F117" s="18">
         <v>7042</v>
       </c>
-      <c r="G117" s="20" t="str">
+      <c r="G117" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>14 años 0 meses</v>
       </c>
-      <c r="H117" s="21" t="str">
+      <c r="H117" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I117" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="J117" s="28" t="s">
+      <c r="I117" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J117" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="K117" s="28" t="s">
+      <c r="K117" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="L117" s="28" t="s">
+      <c r="L117" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="M117" s="23">
+      <c r="M117" s="22">
         <f t="shared" si="7"/>
         <v>7042</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A118" s="25">
+    <row r="118" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A118" s="23">
         <v>2170344</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C118" s="17">
+      <c r="C118" s="16">
         <v>91425</v>
       </c>
-      <c r="D118" s="18" t="s">
+      <c r="D118" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E118" s="19" t="s">
+      <c r="E118" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F118" s="19">
+      <c r="F118" s="18">
         <v>6592</v>
       </c>
-      <c r="G118" s="20" t="str">
+      <c r="G118" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>14 años 0 meses</v>
       </c>
-      <c r="H118" s="21" t="str">
+      <c r="H118" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I118" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="J118" s="28" t="s">
+      <c r="I118" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J118" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="K118" s="28" t="s">
+      <c r="K118" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="L118" s="28" t="s">
+      <c r="L118" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="M118" s="23">
+      <c r="M118" s="22">
         <f t="shared" si="7"/>
         <v>6592</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="29" t="s">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A119" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="B119" s="29"/>
-      <c r="C119" s="29"/>
-      <c r="D119" s="29"/>
-      <c r="E119" s="29"/>
-      <c r="F119" s="29"/>
-      <c r="G119" s="29"/>
-      <c r="H119" s="29"/>
-      <c r="I119" s="29"/>
-      <c r="J119" s="29"/>
-      <c r="K119" s="29"/>
-      <c r="L119" s="29"/>
-      <c r="M119" s="29"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="15">
+      <c r="B119" s="35"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="35"/>
+      <c r="F119" s="35"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="35"/>
+      <c r="I119" s="35"/>
+      <c r="J119" s="35"/>
+      <c r="K119" s="35"/>
+      <c r="L119" s="35"/>
+      <c r="M119" s="35"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A120" s="14">
         <v>2230665</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C120" s="17">
+      <c r="C120" s="16">
         <v>2524035</v>
       </c>
-      <c r="D120" s="18" t="s">
+      <c r="D120" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="E120" s="19" t="s">
+      <c r="E120" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="F120" s="19">
+      <c r="F120" s="18">
         <v>86650</v>
       </c>
-      <c r="G120" s="20" t="str">
+      <c r="G120" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>15 años 4 meses</v>
       </c>
-      <c r="H120" s="21" t="str">
+      <c r="H120" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Activo</v>
       </c>
-      <c r="I120" s="22" t="s">
+      <c r="I120" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J120" s="22" t="s">
+      <c r="J120" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="K120" s="22" t="s">
+      <c r="K120" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="L120" s="27"/>
-      <c r="M120" s="23">
+      <c r="L120" s="25"/>
+      <c r="M120" s="22">
         <f t="shared" ref="M120:M125" si="8">F120</f>
         <v>86650</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A121" s="15">
+    <row r="121" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A121" s="14">
         <v>2233206</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="C121" s="17">
+      <c r="C121" s="16">
         <v>1105791</v>
       </c>
-      <c r="D121" s="18" t="s">
+      <c r="D121" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="E121" s="19" t="s">
+      <c r="E121" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="F121" s="19">
+      <c r="F121" s="18">
         <v>8472</v>
       </c>
-      <c r="G121" s="20" t="str">
+      <c r="G121" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>16 años 0 meses</v>
       </c>
-      <c r="H121" s="21" t="str">
+      <c r="H121" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I121" s="22" t="s">
+      <c r="I121" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J121" s="22" t="s">
+      <c r="J121" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="K121" s="22" t="s">
+      <c r="K121" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="L121" s="27"/>
-      <c r="M121" s="23">
+      <c r="L121" s="25"/>
+      <c r="M121" s="22">
         <f t="shared" si="8"/>
         <v>8472</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A122" s="15">
+    <row r="122" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A122" s="14">
         <v>2227645</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C122" s="17">
+      <c r="C122" s="16">
         <v>990170</v>
       </c>
-      <c r="D122" s="18" t="s">
+      <c r="D122" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="E122" s="19" t="s">
+      <c r="E122" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F122" s="19">
+      <c r="F122" s="18">
         <v>3660</v>
       </c>
-      <c r="G122" s="20" t="str">
+      <c r="G122" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>15 años 10 meses</v>
-      </c>
-      <c r="H122" s="21" t="str">
+        <v>15 años 11 meses</v>
+      </c>
+      <c r="H122" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I122" s="22" t="s">
+      <c r="I122" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J122" s="22" t="s">
+      <c r="J122" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="K122" s="22" t="s">
+      <c r="K122" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="L122" s="22" t="s">
+      <c r="L122" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="M122" s="23">
+      <c r="M122" s="22">
         <f t="shared" si="8"/>
         <v>3660</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="15">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A123" s="14">
         <v>2230663</v>
       </c>
-      <c r="B123" s="16" t="s">
+      <c r="B123" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C123" s="17">
+      <c r="C123" s="16">
         <v>846073.19</v>
       </c>
-      <c r="D123" s="18" t="s">
+      <c r="D123" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="E123" s="19" t="s">
+      <c r="E123" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F123" s="19"/>
-      <c r="G123" s="20" t="str">
+      <c r="F123" s="18"/>
+      <c r="G123" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>16 años 4 meses</v>
       </c>
-      <c r="H123" s="21" t="str">
+      <c r="H123" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I123" s="22" t="s">
+      <c r="I123" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J123" s="22" t="s">
+      <c r="J123" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="K123" s="22" t="s">
+      <c r="K123" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="L123" s="27"/>
-      <c r="M123" s="23">
+      <c r="L123" s="25"/>
+      <c r="M123" s="22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A124" s="15">
+    <row r="124" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A124" s="14">
         <v>2227641</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B124" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C124" s="17">
+      <c r="C124" s="16">
         <v>259706</v>
       </c>
-      <c r="D124" s="18" t="s">
+      <c r="D124" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="E124" s="19" t="s">
+      <c r="E124" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F124" s="19">
+      <c r="F124" s="18">
         <v>1830</v>
       </c>
-      <c r="G124" s="20" t="str">
+      <c r="G124" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>15 años 11 meses</v>
       </c>
-      <c r="H124" s="21" t="str">
+      <c r="H124" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I124" s="22" t="s">
+      <c r="I124" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J124" s="22" t="s">
+      <c r="J124" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="K124" s="22" t="s">
+      <c r="K124" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="L124" s="22" t="s">
+      <c r="L124" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="M124" s="23">
+      <c r="M124" s="22">
         <f t="shared" si="8"/>
         <v>1830</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A125" s="15">
+    <row r="125" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="A125" s="14">
         <v>2228310</v>
       </c>
-      <c r="B125" s="16" t="s">
+      <c r="B125" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="C125" s="17">
+      <c r="C125" s="16">
         <v>142221</v>
       </c>
-      <c r="D125" s="18" t="s">
+      <c r="D125" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="E125" s="19" t="s">
+      <c r="E125" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="F125" s="19">
+      <c r="F125" s="18">
         <v>30449</v>
       </c>
-      <c r="G125" s="20" t="str">
+      <c r="G125" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>15 años 11 meses</v>
       </c>
-      <c r="H125" s="21" t="str">
+      <c r="H125" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Inactivo</v>
       </c>
-      <c r="I125" s="22" t="s">
+      <c r="I125" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J125" s="22" t="s">
+      <c r="J125" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="K125" s="22" t="s">
+      <c r="K125" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="L125" s="22" t="s">
+      <c r="L125" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="M125" s="23">
+      <c r="M125" s="22">
         <f t="shared" si="8"/>
         <v>30449</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A81:M81"/>
+    <mergeCell ref="A84:M84"/>
+    <mergeCell ref="A119:M119"/>
+    <mergeCell ref="A30:M30"/>
+    <mergeCell ref="A32:M32"/>
+    <mergeCell ref="A60:M60"/>
+    <mergeCell ref="A72:M72"/>
+    <mergeCell ref="A78:M78"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="A26:M26"/>
@@ -6657,14 +6665,6 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="A81:M81"/>
-    <mergeCell ref="A84:M84"/>
-    <mergeCell ref="A119:M119"/>
-    <mergeCell ref="A30:M30"/>
-    <mergeCell ref="A32:M32"/>
-    <mergeCell ref="A60:M60"/>
-    <mergeCell ref="A72:M72"/>
-    <mergeCell ref="A78:M78"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6682,15 +6682,15 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="8"/>
-    <col min="2" max="2" width="79.33203125" customWidth="1"/>
-    <col min="13" max="13" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="8"/>
+    <col min="2" max="2" width="79.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>210</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>2344910</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2343407</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2372478</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2233835</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2315159</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2344420</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2305409</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2343430</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2233891</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2337801</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2329305</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2323841</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2331861</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2337768</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2307628</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2342809</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2352291</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2329289</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2328511</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2234328</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2312943</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>2340368</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2329701</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>2340756</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>2344525</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>2312602</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>2313519</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>2230665</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>2229419</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>2330960</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>2232236</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>2230228</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>2233713</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>2229019</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>2233206</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>2250942</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>2230227</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>2229057</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>2227645</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>2229104</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>2226871</v>
       </c>
@@ -8836,7 +8836,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>2230663</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>2229107</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>2227167</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>2229103</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>2169380</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>2230146</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>2230226</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>2232322</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>2170465</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>2228097</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>2227184</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>2230429</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>2228264</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>2227597</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>2230016</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>2227525</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>2228677</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>2230212</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>2232316</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>2231957</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>2227683</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>2231056</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>2229847</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>2227166</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>2233612</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>2229218</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>2228341</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>2227524</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>2232315</v>
       </c>
@@ -10475,7 +10475,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>2227641</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>2226853</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>2228701</v>
       </c>
@@ -10644,7 +10644,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>2230419</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>2230514</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>2172592</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>2230467</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>2230832</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>2227183</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>2230447</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>2228310</v>
       </c>
@@ -11098,7 +11098,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>2227333</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>2227464</v>
       </c>
@@ -11210,7 +11210,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>2230420</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>2229096</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>2227741</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>2232050</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>2227709</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>2229207</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>2170346</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>2170433</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>2170384</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>2170343</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>2170416</v>
       </c>
@@ -11833,7 +11833,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>2170382</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>2227687</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>2170345</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>2170434</v>
       </c>
@@ -12061,7 +12061,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>2170479</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>2170460</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>2170456</v>
       </c>
@@ -12232,7 +12232,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>2170457</v>
       </c>
@@ -12289,7 +12289,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>2170454</v>
       </c>
@@ -12346,7 +12346,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>2170459</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>2170344</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>2228998</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>2230472</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>2228997</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>2229028</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>2227569</v>
       </c>
